--- a/tools/ExcelImport/HamsterKayıt2.xlsx
+++ b/tools/ExcelImport/HamsterKayıt2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Hamsterai_New\tools\ExcelImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392DEAC2-AEA5-4D8C-B82B-897F3CF84F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86203D9B-277E-401E-9C2E-C15D242FAB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B98B5F79-B1B0-44AF-8D6A-54182B2B9F01}"/>
+    <workbookView xWindow="44355" yWindow="4395" windowWidth="17280" windowHeight="8880" xr2:uid="{B98B5F79-B1B0-44AF-8D6A-54182B2B9F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Öğretmen" sheetId="1" r:id="rId1"/>
@@ -391,9 +391,6 @@
     <t>Doğan</t>
   </si>
   <si>
-    <t>05370507894</t>
-  </si>
-  <si>
     <t>Cengiz</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
   </si>
   <si>
     <t>helin0769@mail.com</t>
+  </si>
+  <si>
+    <t>5370507894</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9584E92A-A519-49C1-A814-588B7D3E0943}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -1571,7 +1571,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -1591,7 +1591,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1611,7 +1611,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -1631,7 +1631,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -1651,7 +1651,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1671,7 +1671,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -1691,7 +1691,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -1711,7 +1711,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -1728,7 +1728,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1745,7 +1745,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1762,7 +1762,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -1779,7 +1779,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -1796,7 +1796,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
@@ -1813,7 +1813,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1830,7 +1830,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -1847,7 +1847,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -1864,7 +1864,7 @@
         <v>69</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>6</v>
@@ -1881,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
@@ -1898,7 +1898,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1915,7 +1915,7 @@
         <v>77</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
@@ -1932,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
@@ -1949,7 +1949,7 @@
         <v>83</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -1966,7 +1966,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
@@ -1983,7 +1983,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>6</v>
@@ -2000,7 +2000,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
@@ -2017,7 +2017,7 @@
         <v>95</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
@@ -2034,7 +2034,7 @@
         <v>98</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -2051,7 +2051,7 @@
         <v>101</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
@@ -2068,7 +2068,7 @@
         <v>104</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
@@ -2085,7 +2085,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>12</v>
@@ -2102,7 +2102,7 @@
         <v>110</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>10</v>
@@ -2119,7 +2119,7 @@
         <v>113</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>13</v>
@@ -2136,7 +2136,7 @@
         <v>115</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>15</v>
@@ -2150,10 +2150,10 @@
         <v>117</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>11</v>
@@ -2164,13 +2164,13 @@
         <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>9</v>
@@ -2178,16 +2178,16 @@
     </row>
     <row r="38" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="D38" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>11</v>
@@ -2195,16 +2195,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="D39" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>9</v>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="40" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>6</v>
@@ -2229,16 +2229,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>5</v>
@@ -2246,16 +2246,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>5</v>
@@ -2263,16 +2263,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>5</v>
@@ -2280,16 +2280,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>5</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>5</v>
@@ -2314,16 +2314,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>5</v>
@@ -2331,16 +2331,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>6</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>6</v>
@@ -2365,16 +2365,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>6</v>
@@ -2382,16 +2382,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>6</v>
@@ -2399,16 +2399,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>6</v>
@@ -2416,16 +2416,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>6</v>
@@ -2433,16 +2433,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
@@ -2450,16 +2450,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
@@ -2467,16 +2467,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>8</v>
@@ -2484,16 +2484,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>222</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -2518,67 +2518,67 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>229</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
@@ -2586,16 +2586,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>16</v>
@@ -2603,16 +2603,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>7</v>
@@ -2620,16 +2620,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>240</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>7</v>
@@ -2654,16 +2654,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>7</v>
@@ -2671,16 +2671,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>7</v>
@@ -2688,16 +2688,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>7</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>255</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>7</v>
